--- a/data/2021_waters_collection.xlsx
+++ b/data/2021_waters_collection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emojifilesystem/RND/Turkana/waters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emojifilesystem/RND/Turkana-waters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F485DD-F53E-6344-90EC-E94A03A3E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAB194-40F7-F744-A630-995B096A1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1120" windowWidth="27240" windowHeight="16040" xr2:uid="{CB9AB020-742B-B44E-97E5-4540017A25E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>SampleID</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>MSTW-21-18</t>
+  </si>
+  <si>
+    <t>3'08.520</t>
+  </si>
+  <si>
+    <t>35'51.722</t>
+  </si>
+  <si>
+    <t>3'08.521</t>
+  </si>
+  <si>
+    <t>35'51.723</t>
   </si>
 </sst>
 </file>
@@ -583,7 +595,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,6 +906,12 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
       <c r="H12">
         <v>30.6</v>
       </c>
@@ -914,6 +932,12 @@
       <c r="E13" t="s">
         <v>50</v>
       </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -931,6 +955,12 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -951,7 +981,7 @@
       <c r="F15" s="3">
         <v>2.9352</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>36.059339999999999</v>
       </c>
       <c r="H15">
@@ -974,10 +1004,10 @@
       <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2.9414099999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>36.02807</v>
       </c>
     </row>
@@ -997,10 +1027,10 @@
       <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>2.8966099999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>36.063580000000002</v>
       </c>
     </row>
@@ -1020,10 +1050,10 @@
       <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>2.9274499999999999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>36.058070000000001</v>
       </c>
     </row>
@@ -1042,6 +1072,12 @@
       </c>
       <c r="E19" t="s">
         <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/2021_waters_collection.xlsx
+++ b/data/2021_waters_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emojifilesystem/RND/Turkana-waters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAB194-40F7-F744-A630-995B096A1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D3703-4FDF-134E-A8A9-0BD671B82834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="27240" windowHeight="16040" xr2:uid="{CB9AB020-742B-B44E-97E5-4540017A25E1}"/>
+    <workbookView xWindow="16200" yWindow="1900" windowWidth="27240" windowHeight="16040" xr2:uid="{CB9AB020-742B-B44E-97E5-4540017A25E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>SampleID</t>
   </si>
@@ -114,69 +114,9 @@
     <t>Eliye Springs Resort</t>
   </si>
   <si>
-    <t>35'51.721</t>
-  </si>
-  <si>
-    <t>35'51.734</t>
-  </si>
-  <si>
     <t>Temp_C</t>
   </si>
   <si>
-    <t>3'05.854</t>
-  </si>
-  <si>
-    <t>3'08.519</t>
-  </si>
-  <si>
-    <t>3'08.549</t>
-  </si>
-  <si>
-    <t>3'08.693</t>
-  </si>
-  <si>
-    <t>35'51.710</t>
-  </si>
-  <si>
-    <t>36'07.920</t>
-  </si>
-  <si>
-    <t>3'06.154</t>
-  </si>
-  <si>
-    <t>36'08.597</t>
-  </si>
-  <si>
-    <t>3'06.235</t>
-  </si>
-  <si>
-    <t>36'08.678</t>
-  </si>
-  <si>
-    <t>3'06.573</t>
-  </si>
-  <si>
-    <t>35'08.871</t>
-  </si>
-  <si>
-    <t>3'06.599</t>
-  </si>
-  <si>
-    <t>36'08.890</t>
-  </si>
-  <si>
-    <t>3'15.222</t>
-  </si>
-  <si>
-    <t>36'01.245</t>
-  </si>
-  <si>
-    <t>3'15.141</t>
-  </si>
-  <si>
-    <t>36'01.241</t>
-  </si>
-  <si>
     <t>MSTW-21-11</t>
   </si>
   <si>
@@ -219,16 +159,7 @@
     <t>MSTW-21-18</t>
   </si>
   <si>
-    <t>3'08.520</t>
-  </si>
-  <si>
-    <t>35'51.722</t>
-  </si>
-  <si>
-    <t>3'08.521</t>
-  </si>
-  <si>
-    <t>35'51.723</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -595,7 +526,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F2" sqref="F2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -649,11 +580,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+      <c r="F2" s="3">
+        <v>3.14198333333333</v>
+      </c>
+      <c r="G2" s="3">
+        <v>35.862016666666698</v>
       </c>
       <c r="H2">
         <v>34.6</v>
@@ -675,11 +606,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="F3" s="3">
+        <v>3.1424833333333302</v>
+      </c>
+      <c r="G3" s="3">
+        <v>35.8622333333333</v>
       </c>
       <c r="H3">
         <v>25.3</v>
@@ -701,11 +632,14 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+      <c r="F4" s="3">
+        <v>3.1448833333333299</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35.861833333333301</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -724,11 +658,11 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="F5" s="3">
+        <v>3.0975666666666699</v>
+      </c>
+      <c r="G5" s="3">
+        <v>36.131999999999998</v>
       </c>
       <c r="H5">
         <v>29.4</v>
@@ -750,11 +684,11 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
+      <c r="F6" s="3">
+        <v>3.1025666666666698</v>
+      </c>
+      <c r="G6" s="3">
+        <v>36.143283333333301</v>
       </c>
       <c r="H6">
         <v>29</v>
@@ -776,11 +710,11 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
+      <c r="F7" s="3">
+        <v>3.1039166666666702</v>
+      </c>
+      <c r="G7" s="3">
+        <v>36.144633333333303</v>
       </c>
       <c r="H7">
         <v>29.7</v>
@@ -802,11 +736,11 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
+      <c r="F8" s="3">
+        <v>3.10955</v>
+      </c>
+      <c r="G8" s="3">
+        <v>35.147849999999998</v>
       </c>
       <c r="H8">
         <v>30.9</v>
@@ -828,11 +762,11 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
+      <c r="F9" s="3">
+        <v>3.10998333333333</v>
+      </c>
+      <c r="G9" s="3">
+        <v>36.148166666666697</v>
       </c>
       <c r="H9">
         <v>31.5</v>
@@ -854,11 +788,11 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
+      <c r="F10" s="3">
+        <v>3.2536999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>36.02075</v>
       </c>
       <c r="H10">
         <v>30.5</v>
@@ -880,11 +814,11 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
+      <c r="F11" s="3">
+        <v>3.2523499999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>36.020683333333302</v>
       </c>
       <c r="H11">
         <v>37</v>
@@ -892,7 +826,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>44383</v>
@@ -906,11 +840,11 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
+      <c r="F12" s="3">
+        <v>3.14198333333333</v>
+      </c>
+      <c r="G12" s="3">
+        <v>35.862016666666698</v>
       </c>
       <c r="H12">
         <v>30.6</v>
@@ -918,7 +852,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>44384</v>
@@ -927,21 +861,24 @@
         <v>0.625</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.1419999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>35.862033333333301</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>44384</v>
@@ -955,16 +892,19 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
+      <c r="F14" s="3">
+        <v>3.1420166666666698</v>
+      </c>
+      <c r="G14" s="3">
+        <v>35.862050000000004</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>44388</v>
@@ -973,16 +913,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3">
         <v>2.9352</v>
       </c>
       <c r="G15" s="3">
-        <v>36.059339999999999</v>
+        <v>36.059339999999899</v>
       </c>
       <c r="H15">
         <v>30.2</v>
@@ -990,7 +930,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>44389</v>
@@ -1002,18 +942,21 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3">
-        <v>2.9414099999999999</v>
+        <v>2.9414099999999901</v>
       </c>
       <c r="G16" s="3">
         <v>36.02807</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>44390</v>
@@ -1022,21 +965,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3">
-        <v>2.8966099999999999</v>
+        <v>2.8966099999999901</v>
       </c>
       <c r="G17" s="3">
         <v>36.063580000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>44392</v>
@@ -1048,18 +994,21 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3">
-        <v>2.9274499999999999</v>
+        <v>2.9274499999999901</v>
       </c>
       <c r="G18" s="3">
         <v>36.058070000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>44396</v>
@@ -1073,11 +1022,14 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
+      <c r="F19" s="3">
+        <v>3.1420165999999998</v>
+      </c>
+      <c r="G19" s="3">
+        <v>35.862050000000004</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
